--- a/src/main/resources/excel/new Max matrix.xlsx
+++ b/src/main/resources/excel/new Max matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/Desktop/Аспирантура/Макс/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/IdeaProjects/derivative_toy/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165B519-BF28-6E49-A586-A06E83F1942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A2380-C761-2E4B-9CD9-6A948F298A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{96483E0F-6F8A-7647-8A7C-E9C205EC2003}"/>
   </bookViews>
@@ -408,7 +408,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,31 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -505,21 +493,20 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -897,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE1A6C4-C313-614E-8C51-B298D5149A54}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,33 +918,33 @@
   <sheetData>
     <row r="1" spans="1:26" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21" t="s">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1020,16 +1007,16 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <v>0</v>
       </c>
       <c r="F3" s="14">
@@ -1077,7 +1064,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
       <c r="C4" s="15">
@@ -1191,7 +1178,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>-1</v>
       </c>
       <c r="C6" s="15">

--- a/src/main/resources/excel/new Max matrix.xlsx
+++ b/src/main/resources/excel/new Max matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/IdeaProjects/derivative_toy/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A1477D-6070-4D46-8461-DAB4EAD05D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC2CEC-4572-C147-89F5-624B81313DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{96483E0F-6F8A-7647-8A7C-E9C205EC2003}"/>
   </bookViews>
@@ -33,51 +33,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Переменные (системные уровни в терминах системной динамики) (15 штук)</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">X2 - доля воздушных судов старше 15 лет процентов в год </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X3 - среднее количество нарушений и ошибок пилотов на 100 тыс часов налета в год </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X4 - количество проданных авиабилетов в год </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X4 - количество проданных авиабилетов в год  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X5 - влияние человеческого фактора в происшествиях в процентах в год </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X6 - влияние технического фактора в происшествиях в процентах в год </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X6)</t>
+    </r>
+  </si>
+  <si>
     <t>Внешние факторы (5 штук)</t>
   </si>
   <si>
-    <t>Х1 - среднее время подготовки пилотов на серт трен дней в год (X1)</t>
-  </si>
-  <si>
-    <t>X2 - среднее число авиационных катастроф на 100 тысяч часов налета в год (X2)</t>
-  </si>
-  <si>
-    <t>X3 - повторяемость причин авиационных происшествий (X3)</t>
-  </si>
-  <si>
-    <t>Х4 - среднее количество нарушений инструкций пилотами на 100 тыс часов налета в год (X4)</t>
-  </si>
-  <si>
-    <t>Х5 - доля устаревших воздушных судов свыше 15 лет (X5)</t>
-  </si>
-  <si>
-    <t>Х6 - показатель активности органов контроля за оборотом контрафакта (X6)</t>
-  </si>
-  <si>
-    <t>Х7 - доля частных судов в авиации (X7)</t>
-  </si>
-  <si>
-    <t>Х8 - количество сотрудников, задействованных в метеорологических службах (X8)</t>
-  </si>
-  <si>
-    <t>Res - средняя по возд судам выработка ресурса до списания (F1)</t>
-  </si>
-  <si>
-    <t>For - доля иностранных воздушных судов (F2)</t>
-  </si>
-  <si>
-    <t>Exper - средний летный стаж пилотов (F3)</t>
-  </si>
-  <si>
-    <t>Price - стоимость авиа топлива (F4)</t>
-  </si>
-  <si>
-    <t>Gov - количество нормативно-правовых актов, относящихся к авиации (F5)</t>
+    <r>
+      <t xml:space="preserve">стоимость авиатоплива </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(F1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">доля иностранных самолетов </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(F2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">валютный курс </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(F3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">количество нормативно-правовы актов относящихся к авиации </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(F4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X7 - среднее время тренировок на серт тренажерах дней в год </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X7)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X8 - показатель активности органов контроля за оборотом контрафакта </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X9 - повторяемость причин происшествий </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X9)</t>
+    </r>
+  </si>
+  <si>
+    <t>X1 - среднее число авиационных катастроф на 100 тысяч часов налета в год (X1)</t>
   </si>
 </sst>
 </file>
@@ -162,6 +334,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -181,14 +361,6 @@
       <color theme="1"/>
       <name val="Calibri (Основной текст)"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -212,12 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,10 +418,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -261,10 +436,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -273,22 +445,16 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE1A6C4-C313-614E-8C51-B298D5149A54}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,524 +872,543 @@
   <sheetData>
     <row r="1" spans="1:24" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="14">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="31" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="14">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="12">
-        <v>0</v>
-      </c>
-      <c r="S3" s="12">
-        <v>0</v>
-      </c>
-      <c r="T3" s="12">
-        <v>1</v>
-      </c>
-      <c r="U3" s="12">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>0</v>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>1</v>
-      </c>
-      <c r="T4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="11">
-        <v>1</v>
-      </c>
-      <c r="V4" s="17">
-        <v>-1</v>
+    <row r="6" spans="1:24" ht="61" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="12">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="12">
-        <v>1</v>
-      </c>
-      <c r="V5" s="15">
+    <row r="7" spans="1:24" ht="52" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="61" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="13">
-        <v>0</v>
-      </c>
-      <c r="S6" s="13">
-        <v>1</v>
-      </c>
-      <c r="T6" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="13">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
+    <row r="8" spans="1:24" ht="49" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="U8" s="15">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="52" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>0</v>
-      </c>
-      <c r="T7" s="12">
-        <v>0</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
-        <v>-1</v>
+    <row r="9" spans="1:24" ht="65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="49" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="13">
-        <v>1</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19">
+    <row r="10" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13">
-        <v>1</v>
-      </c>
-      <c r="T9" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="13">
-        <v>0</v>
-      </c>
-      <c r="V9" s="19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10" s="12">
-        <v>0</v>
-      </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="19"/>
+    <row r="11" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:24" ht="73" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1232,14 +1417,14 @@
     <row r="17" spans="1:23" ht="55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:23" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:23" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:23" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V20" s="8"/>
-      <c r="W20" s="6"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
